--- a/data.xlsx
+++ b/data.xlsx
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
+    <sheet name="count" sheetId="3" r:id="rId2"/>
     <sheet name="工作表1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">工作表1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1958">
   <si>
     <t>Id</t>
   </si>
@@ -5893,6 +5894,14 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6061,7 +6070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6239,6 +6248,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6486,15 +6501,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6819,8 +6840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1946"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
+      <selection activeCell="E1892" sqref="E1892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -61780,61 +61801,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1896" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1896" t="s">
+    <row r="1896" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1896" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="B1896">
+      <c r="B1896" s="4">
         <v>5</v>
       </c>
-      <c r="C1896">
+      <c r="C1896" s="4">
         <v>18</v>
       </c>
-      <c r="D1896">
+      <c r="D1896" s="4">
         <v>21</v>
       </c>
-      <c r="E1896">
+      <c r="E1896" s="4">
         <v>24</v>
       </c>
-      <c r="F1896">
+      <c r="F1896" s="4">
         <v>27</v>
       </c>
-      <c r="G1896">
+      <c r="G1896" s="4">
         <v>44</v>
       </c>
-      <c r="H1896">
+      <c r="H1896" s="4">
         <v>10</v>
       </c>
-      <c r="I1896">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1897" t="s">
+      <c r="I1896" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1897" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="B1897">
+      <c r="B1897" s="4">
         <v>5</v>
       </c>
-      <c r="C1897">
+      <c r="C1897" s="4">
         <v>18</v>
       </c>
-      <c r="D1897">
+      <c r="D1897" s="4">
         <v>21</v>
       </c>
-      <c r="E1897">
+      <c r="E1897" s="4">
         <v>24</v>
       </c>
-      <c r="F1897">
+      <c r="F1897" s="4">
         <v>44</v>
       </c>
-      <c r="G1897">
+      <c r="G1897" s="4">
         <v>47</v>
       </c>
-      <c r="H1897">
+      <c r="H1897" s="4">
         <v>20</v>
       </c>
-      <c r="I1897">
+      <c r="I1897" s="4">
         <v>4</v>
       </c>
     </row>
@@ -63272,7 +63293,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -63281,14 +63302,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1954</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -63342,18 +63363,428 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>19</v>
+      </c>
+      <c r="B49" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D50">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>